--- a/data/trans_dic/P44A$endoscopia-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,74; 75,36</t>
+          <t>24,17; 78,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,07; 70,43</t>
+          <t>32,71; 70,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,89; 56,7</t>
+          <t>40,62; 56,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,19; 75,27</t>
+          <t>21,25; 79,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,15; 81,28</t>
+          <t>15,26; 81,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,16; 40,19</t>
+          <t>22,76; 39,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,45; 69,66</t>
+          <t>28,26; 66,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,65; 66,11</t>
+          <t>31,56; 65,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,33; 47,19</t>
+          <t>36,1; 48,17</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,02; 81,24</t>
+          <t>30,74; 79,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,99; 48,6</t>
+          <t>12,54; 50,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,8; 50,4</t>
+          <t>31,02; 51,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,96</t>
+          <t>0,0; 70,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>20,24; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,16; 49,87</t>
+          <t>29,32; 50,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,63; 67,32</t>
+          <t>22,27; 66,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,88; 52,37</t>
+          <t>17,22; 51,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,23; 47,66</t>
+          <t>32,9; 47,85</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,63; 89,58</t>
+          <t>51,46; 89,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,33; 74,26</t>
+          <t>35,01; 72,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,74; 96,56</t>
+          <t>38,77; 96,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,18; 83,14</t>
+          <t>19,69; 83,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,96; 86,35</t>
+          <t>15,03; 86,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,63; 53,18</t>
+          <t>29,05; 53,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,53; 84,58</t>
+          <t>49,16; 84,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,94; 71,49</t>
+          <t>38,2; 73,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,27; 95,77</t>
+          <t>38,47; 94,88</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,77; 73,1</t>
+          <t>38,9; 72,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,5; 75,61</t>
+          <t>48,46; 75,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,38; 48,49</t>
+          <t>35,14; 48,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>42,25; 92,64</t>
+          <t>42,25; 92,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,98; 78,42</t>
+          <t>35,92; 79,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,16; 42,71</t>
+          <t>28,08; 43,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,57; 73,27</t>
+          <t>45,83; 73,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,01; 73,19</t>
+          <t>49,21; 72,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,48; 44,77</t>
+          <t>34,98; 44,94</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,24; 100,0</t>
+          <t>36,31; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,68; 73,27</t>
+          <t>32,42; 72,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,87; 45,62</t>
+          <t>26,65; 46,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51,34; 87,66</t>
+          <t>48,27; 86,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,19; 73,73</t>
+          <t>35,47; 74,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,82; 39,03</t>
+          <t>26,41; 39,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>55,51; 84,76</t>
+          <t>53,88; 87,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,2; 68,47</t>
+          <t>39,92; 68,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,61; 39,56</t>
+          <t>28,78; 39,4</t>
         </is>
       </c>
     </row>
@@ -1245,37 +1246,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,45; 81,6</t>
+          <t>10,32; 81,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,22; 83,29</t>
+          <t>49,96; 82,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>41,28; 75,45</t>
+          <t>41,59; 74,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,08; 49,81</t>
+          <t>36,96; 49,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,22; 83,29</t>
+          <t>49,96; 82,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>41,28; 75,45</t>
+          <t>41,59; 74,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,15; 50,73</t>
+          <t>37,46; 50,45</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>50,73; 71,59</t>
+          <t>51,6; 71,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,78; 59,33</t>
+          <t>44,01; 59,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>41,44; 83,22</t>
+          <t>41,08; 84,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>49,66; 70,28</t>
+          <t>51,67; 71,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,17; 66,26</t>
+          <t>46,85; 66,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,73; 40,44</t>
+          <t>33,87; 40,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>53,94; 67,79</t>
+          <t>54,2; 69,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>47,52; 60,0</t>
+          <t>47,89; 60,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>38,74; 73,9</t>
+          <t>39,15; 73,54</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9654</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15738</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>62150</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6172</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5125</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22827</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15826</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20863</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>84976</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4630; 14973</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10120; 21825</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>52115; 72344</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2842; 10619</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1693; 9020</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16769; 29397</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9193; 21675</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13262; 27654</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>72917; 97280</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9030</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7403</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>33575</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2128</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3292</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19152</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11158</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10696</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>52726</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4990; 12943</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3378; 13736</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25686; 42245</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5891</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1076; 5316</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14363; 24707</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5463; 16232</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5557; 16635</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>43362; 63062</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21894</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15964</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>279839</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6006</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13327</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27900</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20199</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>293166</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15071; 26219</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10226; 21279</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>127953; 319566</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2147; 9082</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1105; 6349</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9467; 17507</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19759; 33985</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13966; 26695</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>139508; 344067</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20167</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>31162</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>66721</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>10331</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14247</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>30197</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>30497</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>45409</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>96919</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14090; 26085</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23916; 37123</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>55936; 77541</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6121; 13446</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8730; 19237</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>24002; 37176</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>23240; 37172</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>36246; 53653</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>85571; 109940</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6346</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12437</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>23540</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19063</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15018</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>36085</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>25409</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27455</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>59625</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3076; 8470</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7536; 16917</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17723; 30748</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12998; 23361</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9723; 20434</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>29272; 43240</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19073; 30862</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20220; 34528</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>51042; 69873</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1594</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>21437</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>23221</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>52352</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>21437</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>23221</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>53947</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>401; 3171</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>15968; 26468</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>16404; 29499</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>44274; 59450</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>15968; 26468</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>16404; 29499</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>46328; 62386</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>67090</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>82704</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>467419</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>65136</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>65140</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>173940</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>132227</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>147844</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>641359</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>56432; 78039</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>70282; 95764</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>316618; 654518</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>54746; 76130</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>53840; 76011</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>159660; 189203</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>116716; 148641</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>131494; 165408</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>486222; 913465</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$endoscopia-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una endoscopia para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una endoscopia para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
